--- a/result/preliminaryAnalysis.xlsx
+++ b/result/preliminaryAnalysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E497AACA-3ADB-4783-8671-333B19104882}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374E2391-7CE2-47EB-9727-A2B71716BC5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,11 +555,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
-                  <a:t>number of remaining words in</a:t>
+                  <a:t>Number of Remaining Words in</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" baseline="0"/>
-                  <a:t> a comment</a:t>
+                  <a:t> a Comment</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
               </a:p>
@@ -680,7 +680,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
-                  <a:t>number of comments</a:t>
+                  <a:t>Number of Comments</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
               </a:p>
@@ -1309,11 +1309,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
-                  <a:t>proportion</a:t>
+                  <a:t>Proportion</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" baseline="0"/>
-                  <a:t> of remaining words in a comment</a:t>
+                  <a:t> of Remaining Words in a Comment</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
               </a:p>
@@ -1434,7 +1434,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
-                  <a:t>number of comments</a:t>
+                  <a:t>Number of Comments</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
               </a:p>
@@ -2984,8 +2984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
